--- a/中药方剂.xlsx
+++ b/中药方剂.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7CEE4-340D-40ED-ADFB-BFF052F3F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3221D7F9-21F1-4984-BBDD-DE6F4843B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="药" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="725">
   <si>
     <t>药</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2948,6 +2948,14 @@
   </si>
   <si>
     <t>仁正 当拈赶路茵连朴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2992,7 +3000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3003,6 +3011,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3098,7 +3109,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6723,1283 +6734,1335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81F33E3-6E34-4A0F-8A7A-BC6069320D6E}">
-  <dimension ref="A2:Q81"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q81" sqref="Q81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="1"/>
-    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.4140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.33203125" style="1"/>
-    <col min="9" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="5.33203125" style="1"/>
-    <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="5.33203125" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1"/>
+    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.33203125" style="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="5.33203125" style="1"/>
+    <col min="18" max="22" width="5.33203125" style="1"/>
+    <col min="23" max="23" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="5.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1">
-        <f>IF(ISBLANK(A2),,IF(ISBLANK(C2),1,0))</f>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="W2" s="1">
+        <f>IF(ISBLANK(B2),,IF(ISBLANK(D2),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="W3" s="1">
+        <f>IF(ISBLANK(B3),,IF(ISBLANK(D3),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="P3" s="1">
-        <f>IF(ISBLANK(A3),,IF(ISBLANK(C3),1,0))</f>
+      <c r="F4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4" si="0">IF(ISBLANK(B4),,IF(ISBLANK(D4),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="W5" s="1">
+        <f>IF(ISBLANK(B5),,IF(ISBLANK(D5),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="W6" s="1">
+        <f>IF(ISBLANK(B6),,IF(ISBLANK(D6),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="W7" s="1">
+        <f>IF(ISBLANK(B7),,IF(ISBLANK(D7),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="W8" s="1">
+        <f>IF(ISBLANK(B8),,IF(ISBLANK(D8),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" ref="P4:P67" si="0">IF(ISBLANK(A4),,IF(ISBLANK(C4),1,0))</f>
+      <c r="D9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W9" s="1">
+        <f>IF(ISBLANK(B9),,IF(ISBLANK(D9),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="E5" s="2"/>
-      <c r="P5" s="1">
-        <f t="shared" si="0"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+      <c r="W10" s="1">
+        <f>IF(ISBLANK(B10),,IF(ISBLANK(D10),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1">
+        <f>IF(ISBLANK(B11),,IF(ISBLANK(D11),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="0"/>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="W12" s="1">
+        <f>IF(ISBLANK(B12),,IF(ISBLANK(D12),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13:W28" si="1">IF(ISBLANK(B13),,IF(ISBLANK(D13),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="1">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>475</v>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="1">
-        <v>46</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B24" s="1">
-        <v>46</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="1">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B25" s="1">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B26" s="1">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="1">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B27" s="1">
-        <v>46</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D27" s="1">
-        <v>15</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="P27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="1">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="1">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="P32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="1">
-        <v>19</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="P33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="1">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="1">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="1">
-        <v>9</v>
-      </c>
-      <c r="P38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="1">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="1">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="1">
-        <v>23</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1">
-        <v>23</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="1">
-        <v>13</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="P43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="1">
-        <v>23</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="1">
-        <v>12</v>
-      </c>
-      <c r="P46" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="1">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3</v>
-      </c>
-      <c r="P47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="1">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="1">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="P49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="1">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="P51" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P52" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P53" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="1">
-        <v>24</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="P54" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="1">
-        <v>24</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D55" s="1">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="P55" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="1">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="P56" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="1">
-        <v>24</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="1">
-        <v>7</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="P57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="1">
-        <v>24</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" s="1">
-        <v>4</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="P58" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P59" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P60" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B61" s="1">
-        <v>25</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="P61" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B62" s="1">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="1">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="P62" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B63" s="1">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="1">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="P63" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B64" s="1">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D64" s="1">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="P64" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P65" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B66" s="1">
-        <v>6</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="P66" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P67" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B68" s="1">
-        <v>4</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P68" s="1">
-        <f t="shared" ref="P68:P79" si="1">IF(ISBLANK(A68),,IF(ISBLANK(C68),1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B69" s="1">
-        <v>5</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P69" s="1">
+      <c r="W14" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B70" s="1">
-        <v>6</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="P70" s="1">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="W15" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="1">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="P71" s="1">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="W18" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="1">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="P72" s="1">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="W19" s="1">
+        <f>IF(ISBLANK(B19),,IF(ISBLANK(D19),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="W20" s="1">
+        <f>IF(ISBLANK(B20),,IF(ISBLANK(D20),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="W21" s="1">
+        <f>IF(ISBLANK(B21),,IF(ISBLANK(D21),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="W22" s="1">
+        <f>IF(ISBLANK(B22),,IF(ISBLANK(D22),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="W23" s="1">
+        <f>IF(ISBLANK(B23),,IF(ISBLANK(D23),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="W26" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P73" s="1">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="W27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="1">
-        <v>50</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="1">
-        <v>50</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="1">
-        <v>5</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P75" s="1">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="W28" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="W29" s="1">
+        <f>IF(ISBLANK(B29),,IF(ISBLANK(D29),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="W30" s="1">
+        <f>IF(ISBLANK(B30),,IF(ISBLANK(D30),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1">
+        <v>19</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="W31" s="1">
+        <f>IF(ISBLANK(B31),,IF(ISBLANK(D31),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="W32" s="1">
+        <f>IF(ISBLANK(B32),,IF(ISBLANK(D32),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="W33" s="1">
+        <f>IF(ISBLANK(B33),,IF(ISBLANK(D33),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="W34" s="1">
+        <f>IF(ISBLANK(B34),,IF(ISBLANK(D34),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1">
+        <v>23</v>
+      </c>
+      <c r="W35" s="1">
+        <f>IF(ISBLANK(B35),,IF(ISBLANK(D35),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1">
+        <v>23</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="W36" s="1">
+        <f>IF(ISBLANK(B36),,IF(ISBLANK(D36),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="W37" s="1">
+        <f>IF(ISBLANK(B37),,IF(ISBLANK(D37),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="1">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="W38" s="1">
+        <f>IF(ISBLANK(B38),,IF(ISBLANK(D38),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="W39" s="1">
+        <f>IF(ISBLANK(B39),,IF(ISBLANK(D39),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="1">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="W40" s="1">
+        <f>IF(ISBLANK(B40),,IF(ISBLANK(D40),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="W41" s="1">
+        <f>IF(ISBLANK(B41),,IF(ISBLANK(D41),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="1">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="W42" s="1">
+        <f>IF(ISBLANK(B42),,IF(ISBLANK(D42),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="1">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="W43" s="1">
+        <f>IF(ISBLANK(B43),,IF(ISBLANK(D43),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C44" s="1">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="W44" s="1">
+        <f>IF(ISBLANK(B44),,IF(ISBLANK(D44),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C45" s="1">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="W45" s="1">
+        <f>IF(ISBLANK(B45),,IF(ISBLANK(D45),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C46" s="1">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" s="1">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="W46" s="1">
+        <f>IF(ISBLANK(B46),,IF(ISBLANK(D46),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" s="1">
+        <v>46</v>
+      </c>
+      <c r="W47" s="1">
+        <f>IF(ISBLANK(B47),,IF(ISBLANK(D47),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="1">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="W48" s="1">
+        <f>IF(ISBLANK(B48),,IF(ISBLANK(D48),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="1">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="W49" s="1">
+        <f>IF(ISBLANK(B49),,IF(ISBLANK(D49),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" s="1">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E50" s="1">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="W50" s="1">
+        <f>IF(ISBLANK(B50),,IF(ISBLANK(D50),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" s="1">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E51" s="1">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="W51" s="1">
+        <f>IF(ISBLANK(B51),,IF(ISBLANK(D51),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="1">
+      <c r="C52" s="1">
         <v>50</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="W52" s="1">
+        <f>IF(ISBLANK(B52),,IF(ISBLANK(D52),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="W53" s="1">
+        <f>IF(ISBLANK(B53),,IF(ISBLANK(D53),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E54" s="1">
         <v>6</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="P76" s="1">
-        <f t="shared" si="1"/>
+      <c r="W54" s="1">
+        <f t="shared" ref="W54:W56" si="2">IF(ISBLANK(B54),,IF(ISBLANK(D54),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="1">
+      <c r="C55" s="1">
         <v>50</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E55" s="1">
         <v>7</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P77" s="1">
-        <f t="shared" si="1"/>
+      <c r="W55" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="1">
+      <c r="C56" s="1">
         <v>50</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E56" s="1">
         <v>8</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="P78" s="1">
-        <f t="shared" si="1"/>
+      <c r="W56" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+    <row r="57" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="1">
+      <c r="C57" s="1">
         <v>50</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E57" s="1">
         <v>9</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="P79" s="1">
-        <f t="shared" si="1"/>
+      <c r="W57" s="1">
+        <f>IF(ISBLANK(B57),,IF(ISBLANK(D57),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q81" s="1">
-        <f>SUMPRODUCT(B:B,P:P)</f>
-        <v>318</v>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="W58" s="1">
+        <f>IF(ISBLANK(B58),,IF(ISBLANK(D58),1,0))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G57">
+    <sortCondition ref="C2:C57"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -8011,9 +8074,9 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G64" sqref="G64"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9113,10 +9176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ED155A-BF2B-4D81-AEB3-B117136BF50B}">
-  <dimension ref="A2:Q68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F32:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9128,11 +9191,21 @@
     <col min="5" max="5" width="29.08203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.6640625" style="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>308</v>
       </c>
@@ -9142,18 +9215,33 @@
       <c r="E2" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="P2" s="1">
+      <c r="I2" s="4">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1">
         <f>IF(ISBLANK(A2),,IF(ISBLANK(C2),1,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P66" si="0">IF(ISBLANK(A3),,IF(ISBLANK(C3),1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <f>IF(ISBLANK(A3),,IF(ISBLANK(C3),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>286</v>
       </c>
@@ -9163,18 +9251,36 @@
       <c r="E4" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
+      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1">
+        <f>IF(ISBLANK(A4),,IF(ISBLANK(C4),1,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="I5" s="4">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1">
+        <f>IF(ISBLANK(A5),,IF(ISBLANK(C5),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -9184,987 +9290,1047 @@
       <c r="E6" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="0"/>
+      <c r="I6" s="4">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1">
+        <f>IF(ISBLANK(A6),,IF(ISBLANK(C6),1,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P7" s="1">
-        <f t="shared" si="0"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1">
+        <f>IF(ISBLANK(A7),,IF(ISBLANK(C7),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I8" s="4">
+        <v>19</v>
+      </c>
+      <c r="R8" s="1">
+        <f>IF(ISBLANK(A8),,IF(ISBLANK(C8),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I9" s="4">
+        <v>17</v>
+      </c>
+      <c r="R9" s="1">
+        <f>IF(ISBLANK(A9),,IF(ISBLANK(C9),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1">
+        <f>IF(ISBLANK(A10),,IF(ISBLANK(C10),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="R11" s="1">
+        <f>IF(ISBLANK(A11),,IF(ISBLANK(C11),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1">
+        <f>IF(ISBLANK(A12),,IF(ISBLANK(C12),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1">
+        <f>IF(ISBLANK(A13),,IF(ISBLANK(C13),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I14" s="4">
+        <v>14</v>
+      </c>
+      <c r="R14" s="1">
+        <f>IF(ISBLANK(A14),,IF(ISBLANK(C14),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10</v>
+      </c>
+      <c r="R15" s="1">
+        <f>IF(ISBLANK(A15),,IF(ISBLANK(C15),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="I16" s="4">
+        <v>16</v>
+      </c>
+      <c r="R16" s="1">
+        <f>IF(ISBLANK(A16),,IF(ISBLANK(C16),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <f>IF(ISBLANK(A17),,IF(ISBLANK(C17),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7</v>
+      </c>
+      <c r="R18" s="1">
+        <f>IF(ISBLANK(A18),,IF(ISBLANK(C18),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1">
+        <f>IF(ISBLANK(A19),,IF(ISBLANK(C19),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
+      <c r="E20" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7</v>
+      </c>
+      <c r="R20" s="1">
+        <f>IF(ISBLANK(A20),,IF(ISBLANK(C20),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4">
+        <v>9</v>
+      </c>
+      <c r="R21" s="1">
+        <f>IF(ISBLANK(A21),,IF(ISBLANK(C21),1,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P9" s="1">
-        <f t="shared" si="0"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I22" s="4">
+        <v>9</v>
+      </c>
+      <c r="R22" s="1">
+        <f>IF(ISBLANK(A22),,IF(ISBLANK(C22),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I23" s="4">
+        <v>9</v>
+      </c>
+      <c r="R23" s="1">
+        <f>IF(ISBLANK(A23),,IF(ISBLANK(C23),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I24" s="4">
+        <v>9</v>
+      </c>
+      <c r="R24" s="1">
+        <f>IF(ISBLANK(A24),,IF(ISBLANK(C24),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8</v>
+      </c>
+      <c r="R25" s="1">
+        <f>IF(ISBLANK(A25),,IF(ISBLANK(C25),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8</v>
+      </c>
+      <c r="R26" s="1">
+        <f>IF(ISBLANK(A26),,IF(ISBLANK(C26),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8</v>
+      </c>
+      <c r="R27" s="1">
+        <f>IF(ISBLANK(A27),,IF(ISBLANK(C27),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6</v>
+      </c>
+      <c r="R28" s="1">
+        <f>IF(ISBLANK(A28),,IF(ISBLANK(C28),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="R29" s="1">
+        <f>IF(ISBLANK(A29),,IF(ISBLANK(C29),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1">
+        <f>IF(ISBLANK(A30),,IF(ISBLANK(C30),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="1">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6</v>
+      </c>
+      <c r="R31" s="1">
+        <f>IF(ISBLANK(A31),,IF(ISBLANK(C31),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="0"/>
+      <c r="E32" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6</v>
+      </c>
+      <c r="R32" s="1">
+        <f>IF(ISBLANK(A32),,IF(ISBLANK(C32),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6</v>
+      </c>
+      <c r="R33" s="1">
+        <f>IF(ISBLANK(A33),,IF(ISBLANK(C33),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B34" s="1">
+        <v>17</v>
+      </c>
+      <c r="I34" s="4">
+        <v>13</v>
+      </c>
+      <c r="R34" s="1">
+        <f>IF(ISBLANK(A34),,IF(ISBLANK(C34),1,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P11" s="1">
-        <f t="shared" si="0"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="I35" s="4">
+        <v>13</v>
+      </c>
+      <c r="R35" s="1">
+        <f>IF(ISBLANK(A35),,IF(ISBLANK(C35),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P13" s="1">
-        <f t="shared" si="0"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>13</v>
+      </c>
+      <c r="R36" s="1">
+        <f>IF(ISBLANK(A36),,IF(ISBLANK(C36),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="1">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B21" s="1">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B22" s="1">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B26" s="1">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B30" s="1">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="P30" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" s="1">
-        <v>9</v>
-      </c>
-      <c r="P32" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="1">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="P33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1">
-        <v>12</v>
-      </c>
-      <c r="P36" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>701</v>
       </c>
       <c r="B37" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>613</v>
+        <v>704</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P37" s="1">
-        <f t="shared" si="0"/>
+      <c r="I37" s="4">
+        <v>13</v>
+      </c>
+      <c r="R37" s="1">
+        <f>IF(ISBLANK(A37),,IF(ISBLANK(C37),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>701</v>
       </c>
       <c r="B38" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>618</v>
+        <v>418</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="P38" s="1">
-        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="I38" s="4">
+        <v>13</v>
+      </c>
+      <c r="R38" s="1">
+        <f>IF(ISBLANK(A38),,IF(ISBLANK(C38),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>701</v>
       </c>
       <c r="B39" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="D39" s="1">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="P39" s="1">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>13</v>
+      </c>
+      <c r="R39" s="1">
+        <f>IF(ISBLANK(A39),,IF(ISBLANK(C39),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P40" s="1">
-        <f t="shared" si="0"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>13</v>
+      </c>
+      <c r="R40" s="1">
+        <f>IF(ISBLANK(A40),,IF(ISBLANK(C40),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="B41" s="1">
-        <v>13</v>
-      </c>
-      <c r="P41" s="1">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="I41" s="4">
+        <v>4</v>
+      </c>
+      <c r="R41" s="1">
+        <f>IF(ISBLANK(A41),,IF(ISBLANK(C41),1,0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="B42" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4</v>
+      </c>
+      <c r="R42" s="1">
+        <f>IF(ISBLANK(A42),,IF(ISBLANK(C42),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="B43" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="D43" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="P43" s="1">
-        <f t="shared" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4</v>
+      </c>
+      <c r="R43" s="1">
+        <f>IF(ISBLANK(A43),,IF(ISBLANK(C43),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P44" s="1">
-        <f t="shared" si="0"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B44" s="1">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4</v>
+      </c>
+      <c r="R44" s="1">
+        <f>IF(ISBLANK(A44),,IF(ISBLANK(C44),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>707</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="P45" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+        <v>717</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4</v>
+      </c>
+      <c r="R45" s="1">
+        <f>IF(ISBLANK(A45),,IF(ISBLANK(C45),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>707</v>
       </c>
       <c r="B46" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>718</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>692</v>
+        <v>719</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P46" s="1">
-        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4</v>
+      </c>
+      <c r="R46" s="1">
+        <f>IF(ISBLANK(A46),,IF(ISBLANK(C46),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B47" s="1">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="1">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="P47" s="1">
-        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="R47" s="1">
+        <f>IF(ISBLANK(A47),,IF(ISBLANK(C47),1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="1">
-        <v>17</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="1">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="P49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="1">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D50" s="1">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="P50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P51" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B52" s="1">
-        <v>17</v>
-      </c>
-      <c r="P52" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B53" s="1">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="P53" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B54" s="1">
-        <v>17</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="P54" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B55" s="1">
-        <v>17</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="P55" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B56" s="1">
-        <v>17</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D56" s="1">
-        <v>4</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="P56" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B57" s="1">
-        <v>17</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="P57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B58" s="1">
-        <v>17</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="P59" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B60" s="1">
-        <v>19</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="P60" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B61" s="1">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="P61" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B62" s="1">
-        <v>19</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="P62" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B63" s="1">
-        <v>19</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="P63" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B64" s="1">
-        <v>19</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="P64" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B65" s="1">
-        <v>19</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="P65" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B66" s="1">
-        <v>19</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="1">
-        <v>7</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="P66" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="Q68" s="1">
-        <f>SUMPRODUCT(B:B,P:P)</f>
-        <v>161</v>
-      </c>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I49" s="4"/>
+      <c r="K49" s="1">
+        <f>SUMPRODUCT(B:B,R:R)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="9:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I69" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+    <sortCondition ref="B2:B47"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
